--- a/similarities/split_global/harmonic_similarity_timestamps_334.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_334.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'D:dim7'], ['F:min7', 'Ab:7', 'Db'], ['Ab:maj6', 'Eb:7', 'Ab:maj6']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Gb:dim7'], ['Eb:maj6', 'Eb:7', 'Ab'], ['Eb:maj6', 'Bb:7', 'Eb:maj6']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:36.020000', '0:01:38.300000'), ('0:00:36.090000', '0:00:37.830000'), ('0:00:25.580000', '0:00:27.910000')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:24.660000', '0:00:28.960000'), ('0:00:22.730000', '0:00:28.480000'), ('0:00:30.400000', '0:00:35.170000')]</t>
+          <t>('0:00:09.240000', '0:00:16.260000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=96.02', 'https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=36.09', 'https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=25.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=24.66', 'https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=22.73', 'https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=30.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:29.080000', '0:01:38.100000')]</t>
+          <t>('0:00:13.480000', '0:00:20.960000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:11.700000', '0:00:20.020000')]</t>
+          <t>('0:00:02.300000', '0:00:07.040000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D/5', 'A', 'D/5', 'E/4', 'A', 'D/5', 'A', 'D/5', 'A', 'D/4', 'E/4', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'E/4', 'A', 'D/5', 'A']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'G', 'D']]</t>
+          <t>['D', 'A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:44.130000', '0:03:13.674000')]</t>
+          <t>('0:01:00.100000', '0:01:05.020000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:17.965212', '0:01:23.364215')]</t>
+          <t>('0:01:02.932448', '0:01:12.777709')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=164.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=60.1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=17.965212']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=62.932448</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:34.860000', '0:00:39.700000')]</t>
+          <t>('0:00:23.740000', '0:00:51.720000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:31.600000', '0:00:33.800000')]</t>
+          <t>('0:00:12.320000', '0:00:19.900000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=34.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=23.74</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=12.32</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
+          <t>('0:00:02.300000', '0:00:07.040000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.740000', '0:00:21.500000')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['C', 'C:7', 'F', 'C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:13.760000')]</t>
+          <t>('0:00:51.800000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:21.245000')]</t>
+          <t>('0:00:31.527551', '0:00:52.146870')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=51.8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>isophonics_19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A/3']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:13.527000', '0:00:17.058000')]</t>
+          <t>('0:00:38.438956', '0:00:41.945170')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:00', '0:00:02.430000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=38.438956</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=0.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:01:23.100000', '0:01:30.020000')]</t>
+          <t>('0:00:33.100000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000'), ('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:01:06.980000', '0:01:23.840000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=33.1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=66.98</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:00:26.041712', '0:00:37.106020')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['Bb', 'Eb/5', 'Ab']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F#/4', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:43.520929', '0:01:48.664149')]</t>
+          <t>('0:01:33.181700', '0:01:37.709591')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:02:07.431000', '0:02:12.656000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=93.1817</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=127.431</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B', 'A', 'E', 'A'], ['B', 'E', 'A', 'E', 'B', 'A', 'E']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'D', 'C', 'G', 'C'], ['D', 'G', 'C', 'G', 'D', 'C', 'G']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:15.216000', '0:00:59.164000'), ('0:00:14.033000', '0:00:54.729000')]</t>
+          <t>('0:00:50.160000', '0:00:52.820000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:08.158789', '0:00:28.461467'), ('0:00:28.800769', '0:00:50.094027')]</t>
+          <t>('0:00:11.465419', '0:00:19.151224')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=14.033']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=28.800769']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=11.465419</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>jaah_88</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['Eb:7', 'Ab:7', 'Db:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['C:7', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:21.420000', '0:01:30.040000')]</t>
+          <t>('0:00:32.390000', '0:00:40.540000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000')]</t>
+          <t>('0:00:14.980000', '0:00:22.790000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=32.39</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=14.98</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A', 'D:min', 'G:min/5', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['G', 'C:min', 'F:min/5', 'C:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
+          <t>('0:00:26.035941', '0:00:31.109501')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:11.285000', '0:00:22.981000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=26.035941</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=11.285</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:23.140000', '0:00:32.760000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:07.360000', '0:00:19.880000')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=23.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:18.540000'), ('0:00:06.880000', '0:00:15.960000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.980000', '0:00:08.880000'), ('0:00:00.220000', '0:00:06.800000')]</t>
+          <t>('0:00:01.014823', '0:00:12.241493')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=6.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
